--- a/src/analysis_examples/circadb/results_lomb/cosinor_10542791_ppfibp1_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10542791_ppfibp1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18027529430545625, 0.291410335094367]</t>
+          <t>[0.17755526920600168, 0.29413036019382155]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.644411673495938e-08</v>
+        <v>3.629638101187993e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.644411673495938e-08</v>
+        <v>3.629638101187993e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.4402632347373086</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.32231534522153543, 0.38585006348100565]</t>
+          <t>[0.3223506636648794, 0.38581474503766167]</t>
         </is>
       </c>
       <c r="U2" t="n">
